--- a/modify_excel/nifty.xlsx
+++ b/modify_excel/nifty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>nifty50</t>
   </si>
@@ -584,6 +584,7 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -599,7 +600,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,21 +905,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,11 +930,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="6"/>
@@ -946,1122 +946,1127 @@
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="16"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="16"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="16"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="16"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="16"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="16"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="16"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="16"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="16"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="16"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="16"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="19"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="16"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="18"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="16"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="18"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="19"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="16"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="19"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="16"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="18"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="20"/>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" ht="86.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="16"/>
       <c r="F35" s="5"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="19"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="16"/>
       <c r="F37" s="2"/>
-      <c r="H37" s="16"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="19"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="3"/>
       <c r="M38" s="4"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="16"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="3"/>
       <c r="M39" s="4"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="H40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="3"/>
       <c r="M40" s="4"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="16"/>
       <c r="F41" s="2"/>
-      <c r="H41" s="16"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="18"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="H42" s="17"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="3"/>
       <c r="M42" s="4"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" ht="86.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="16"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="18"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="3"/>
       <c r="M43" s="4"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="H44" s="17"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="16"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="18"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="3"/>
       <c r="M45" s="4"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="H46" s="17"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="3"/>
       <c r="M46" s="4"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="16"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="18"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="3"/>
       <c r="M47" s="4"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="H48" s="17"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="3"/>
       <c r="M48" s="4"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="16"/>
       <c r="F49" s="2"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="18"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="16" t="s">
         <v>78</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="H50" s="17"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="16"/>
       <c r="F51" s="1"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="21" t="s">
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="17"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="1:14" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="21"/>
-      <c r="H53" s="16"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="21" t="s">
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="21"/>
-      <c r="H55" s="16"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="21" t="s">
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="17"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="21"/>
-      <c r="H57" s="16"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="H57" s="17"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="21" t="s">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="21"/>
-      <c r="H59" s="16"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="21" t="s">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="15"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="21"/>
-      <c r="H61" s="16"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-    </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="21" t="s">
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="21"/>
-      <c r="H63" s="16"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:14" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="21" t="s">
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="21"/>
-      <c r="H65" s="16"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="21" t="s">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="2:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="21"/>
-      <c r="H67" s="16"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="2:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-    </row>
-    <row r="68" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="21" t="s">
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="15"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="21"/>
-      <c r="H69" s="16"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="21" t="s">
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H70" s="17"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="14"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="21"/>
-      <c r="H71" s="16"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-    </row>
-    <row r="72" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="21" t="s">
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="17"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="21"/>
-      <c r="H73" s="16"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-    </row>
-    <row r="74" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="21" t="s">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="21"/>
-      <c r="H75" s="16"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row r="76" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="21" t="s">
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21"/>
-      <c r="H77" s="16"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="21" t="s">
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="2:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21"/>
-      <c r="H79" s="16"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="2:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="21" t="s">
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H80" s="17"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="15"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-    </row>
-    <row r="81" spans="2:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21"/>
-      <c r="H81" s="16"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="2:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+      <c r="H81" s="17"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-    </row>
-    <row r="82" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="21" t="s">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H82" s="17"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-    </row>
-    <row r="83" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21"/>
-      <c r="H83" s="16"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="13"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-    </row>
-    <row r="84" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="21" t="s">
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H84" s="17"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B85" s="21"/>
-      <c r="H85" s="16"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-    </row>
-    <row r="86" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="21" t="s">
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="17"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="14"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-    </row>
-    <row r="87" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="21"/>
-      <c r="H87" s="16"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-    </row>
-    <row r="88" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="21" t="s">
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H88" s="17"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" s="21"/>
-      <c r="H89" s="16"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+      <c r="H89" s="17"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-    </row>
-    <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="21" t="s">
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="17"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="14"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-    </row>
-    <row r="91" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="21"/>
-      <c r="H91" s="16"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
+      <c r="H91" s="17"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-    </row>
-    <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="21" t="s">
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="17"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-    </row>
-    <row r="93" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="21"/>
-      <c r="H93" s="16"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+      <c r="H93" s="17"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-    </row>
-    <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="21" t="s">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H94" s="17"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="15"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" s="21"/>
-      <c r="H95" s="16"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="16"/>
+      <c r="H95" s="17"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-    </row>
-    <row r="96" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="21" t="s">
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H96" s="17"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="15"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B97" s="21"/>
-      <c r="H97" s="16"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="16"/>
+      <c r="H97" s="17"/>
       <c r="I97" s="13"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-    </row>
-    <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="21" t="s">
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H98" s="20"/>
+      <c r="H98" s="21"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="144">
